--- a/profitability.xlsx
+++ b/profitability.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="-18645" windowWidth="19500" windowHeight="12435"/>
+    <workbookView xWindow="3585" yWindow="-18645" windowWidth="19500" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="4" r:id="rId1"/>
@@ -1204,7 +1204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
@@ -2835,7 +2835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:AC19"/>
     </sheetView>
   </sheetViews>
